--- a/ITI/MHD/4.1.0/StructureDefinition-IHE.MHD.ProvideDocumentBundleResponse.xlsx
+++ b/ITI/MHD/4.1.0/StructureDefinition-IHE.MHD.ProvideDocumentBundleResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:33:04-06:00</t>
+    <t>2022-02-28T20:06:14-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
